--- a/Excel/Testdata.xlsx
+++ b/Excel/Testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
@@ -420,7 +420,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excel/Testdata.xlsx
+++ b/Excel/Testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
